--- a/src/sendcloud/send_email_with_sendcloud/email_list.xlsx
+++ b/src/sendcloud/send_email_with_sendcloud/email_list.xlsx
@@ -24,7 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>guijihe@163.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -359,16 +364,21 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>